--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -851,10 +851,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>26</v>
@@ -770,7 +770,7 @@
         <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
@@ -779,19 +779,19 @@
         <v>700</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL2" t="n">
         <v>10</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.5</v>
       </c>
       <c r="AM2" t="n">
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>34</v>
@@ -863,16 +863,16 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U3" t="n">
         <v>1.53</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -981,58 +981,58 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1047,13 +1047,13 @@
         <v>19</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1062,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ4" t="n">
         <v>11</v>
@@ -1074,13 +1074,13 @@
         <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -917,7 +917,7 @@
         <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ3" t="n">
         <v>7.5</v>
@@ -1008,31 +1008,31 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
         <v>26</v>
@@ -1065,7 +1065,7 @@
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ2" t="n">
         <v>7.5</v>
@@ -863,10 +863,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>4.5</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1008,10 +1008,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -722,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>3.75</v>
@@ -746,13 +746,13 @@
         <v>1.83</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -761,13 +761,13 @@
         <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ2" t="n">
         <v>7.5</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>21</v>
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
@@ -1032,7 +1032,7 @@
         <v>2.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1041,31 +1041,31 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -710,10 +710,10 @@
         <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -740,10 +740,10 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -758,7 +758,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
         <v>34</v>
@@ -776,13 +776,13 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ2" t="n">
         <v>7.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>10</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -848,7 +848,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -857,10 +857,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -875,19 +875,19 @@
         <v>1.17</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
         <v>12</v>
@@ -905,7 +905,7 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF3" t="n">
         <v>6</v>
@@ -920,28 +920,28 @@
         <v>1250</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -996,28 +996,28 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U4" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -710,10 +710,10 @@
         <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -722,31 +722,31 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
         <v>1.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -758,10 +758,10 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -770,19 +770,19 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ2" t="n">
         <v>7.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>10</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -770,28 +770,28 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
         <v>11</v>
       </c>
-      <c r="AL2" t="n">
-        <v>10</v>
-      </c>
       <c r="AM2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN2" t="n">
         <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>34</v>
@@ -851,10 +851,10 @@
         <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -917,7 +917,7 @@
         <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>7</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -996,28 +996,28 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U4" t="n">
         <v>1.4</v>
@@ -1026,10 +1026,10 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1050,7 +1050,7 @@
         <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,165 +496,155 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over05_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over15_FT</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under15_FT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over25_FT</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under25_FT</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over35_FT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under35_FT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_Yes</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over2_FT</t>
+          <t>Odd_Over3_FT</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under2_FT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over3_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
         </is>
@@ -663,7 +653,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2msHXImo</t>
+          <t>vovPXUDd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,138 +663,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>6.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>6.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>26</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="n">
         <v>23</v>
       </c>
-      <c r="AD2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>800</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U1DzKp1e</t>
+          <t>QJJhSgNr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -814,280 +798,133 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
         <v>11</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AJ3" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7</v>
-      </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1.06</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QJJhSgNr</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25/03/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AS4" t="n">
         <v>1.98</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,155 +496,165 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over35_FT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under35_FT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_FT</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_FT</t>
-        </is>
-      </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
         </is>
@@ -653,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vovPXUDd</t>
+          <t>2msHXImo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -663,268 +673,421 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.7</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>6.7</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.47</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.18</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.5</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>4.85</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
         <v>15</v>
       </c>
-      <c r="AB2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AH2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM2" t="n">
         <v>26</v>
       </c>
-      <c r="AF2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AN2" t="n">
         <v>23</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>U1DzKp1e</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Raith</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>QJJhSgNr</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Cerro Largo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Montevideo City</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>2.63</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>2.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>3.25</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>3.4</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.29</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P4" t="n">
         <v>3.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z4" t="n">
         <v>13</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA4" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB4" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC4" t="n">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD4" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF4" t="n">
         <v>6</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG4" t="n">
         <v>13</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH4" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK4" t="n">
         <v>13</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AL4" t="n">
         <v>11</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AM4" t="n">
         <v>26</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AN4" t="n">
         <v>21</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AO4" t="n">
         <v>29</v>
       </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
         <v>1.88</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AS4" t="n">
         <v>1.98</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>23</v>
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>23</v>
@@ -851,10 +851,10 @@
         <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1008,10 +1008,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -758,10 +758,10 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -770,28 +770,28 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ2" t="n">
         <v>7.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="n">
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>34</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -848,7 +848,7 @@
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -899,7 +899,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
@@ -923,10 +923,10 @@
         <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,165 +496,155 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over05_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over15_FT</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under15_FT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over25_FT</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under25_FT</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over35_FT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under35_FT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_Yes</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over2_FT</t>
+          <t>Odd_Over3_FT</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under2_FT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over3_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
         </is>
@@ -663,7 +653,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2msHXImo</t>
+          <t>vovPXUDd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,138 +663,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.22</v>
+        <v>2.27</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>4.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AA2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17</v>
-      </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>700</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.5</v>
+        <v>175</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U1DzKp1e</t>
+          <t>QJJhSgNr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -814,280 +798,133 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.14</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>1.62</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
         <v>11</v>
       </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1.04</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QJJhSgNr</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25/03/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AS4" t="n">
         <v>1.98</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,155 +496,165 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over35_FT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under35_FT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_FT</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_FT</t>
-        </is>
-      </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
         </is>
@@ -653,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vovPXUDd</t>
+          <t>2msHXImo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -663,268 +673,421 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="V2" t="n">
         <v>2.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W2" t="n">
-        <v>4.8</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.3</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.6</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="AJ2" t="n">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>U1DzKp1e</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Raith</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>QJJhSgNr</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Cerro Largo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Montevideo City</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>2.6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>2.8</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>3.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>3.4</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.4</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="T4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.4</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V4" t="n">
         <v>2.75</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W4" t="n">
         <v>1.73</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X4" t="n">
         <v>2</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z4" t="n">
         <v>13</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA4" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB4" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC4" t="n">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD4" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF4" t="n">
         <v>6</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG4" t="n">
         <v>13</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH4" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK4" t="n">
         <v>13</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AL4" t="n">
         <v>11</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AM4" t="n">
         <v>29</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AN4" t="n">
         <v>23</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AO4" t="n">
         <v>29</v>
       </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
         <v>1.88</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AS4" t="n">
         <v>1.98</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -996,34 +996,34 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.29</v>
       </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W4" t="n">
         <v>1.73</v>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1047,10 +1047,10 @@
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1065,7 +1065,7 @@
         <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
@@ -1074,13 +1074,13 @@
         <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-25.xlsx
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1044,28 +1044,28 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="n">
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
